--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C755"/>
+  <dimension ref="A1:C762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13196,6 +13196,125 @@
         </is>
       </c>
       <c r="C755" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>-29.6283264470082</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>-26.5107047191214</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>-24.133467118156</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>-17.4925438737658</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">

--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">

--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C762"/>
+  <dimension ref="A1:C769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13320,6 +13320,125 @@
         </is>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>-16.7779852939331</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>-13.2315954243115</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>-20.4887128765297</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>-26.4982986732007</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>-26.4982986732007</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>-33.3050853798769</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">

--- a/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.DBC.STO.Z.Z.USD.D.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -10200,7 +10200,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -12223,7 +12223,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
